--- a/HW3/活頁簿1.xlsx
+++ b/HW3/活頁簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/ML/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FB9F04-C13A-9F45-99C6-ECEB4518E260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4FC9B0-DB91-184B-A7F7-6F6EDB6F5AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{C09CBB6D-12F6-6F4C-B841-332787228A24}"/>
+    <workbookView xWindow="3600" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{C09CBB6D-12F6-6F4C-B841-332787228A24}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>test_tfm = transforms.Compose([</t>
   </si>
@@ -125,6 +125,77 @@
   </si>
   <si>
     <t>epoch=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train loss = 0.50463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.81742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid loss = 3.69858</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.46758</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    transforms.RandomRotation(15),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    transforms.RandomHorizontalFlip(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    transforms.RandomVerticalFlip(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    transforms.ColorJitter(brightness=0.1, contrast=0.1, saturation=0.1),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    transforms.RandomAffine(15),</t>
+  </si>
+  <si>
+    <t>densenet121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train loss = 0.11762</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.96058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid loss = 1.32180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.72653</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train loss = 0.09138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.96915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid loss = 1.63140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.71802</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,15 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED0EF0-B58F-A746-9579-BDFDF71A97E1}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:21">
       <c r="C1">
         <v>1</v>
       </c>
@@ -507,8 +578,14 @@
       <c r="K1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="P1">
+        <v>4</v>
+      </c>
+      <c r="U1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -516,10 +593,16 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -527,10 +610,16 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -538,10 +627,16 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -549,18 +644,32 @@
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -570,8 +679,14 @@
       <c r="I10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -581,8 +696,14 @@
       <c r="I12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -592,8 +713,14 @@
       <c r="I13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -603,8 +730,14 @@
       <c r="I14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -614,13 +747,19 @@
       <c r="I15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -630,8 +769,14 @@
       <c r="I19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -641,8 +786,14 @@
       <c r="I20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="N20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -652,8 +803,14 @@
       <c r="I21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="N21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -663,8 +820,14 @@
       <c r="I22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -674,8 +837,14 @@
       <c r="I23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="N23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -685,8 +854,14 @@
       <c r="I24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -696,8 +871,14 @@
       <c r="I25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -707,24 +888,42 @@
       <c r="I26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="N26" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="I27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="N27" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="I28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="N28" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>3</v>
       </c>

--- a/HW3/活頁簿1.xlsx
+++ b/HW3/活頁簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/ML/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4FC9B0-DB91-184B-A7F7-6F6EDB6F5AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCF1191-34C9-7241-9BB1-C96CB6C689CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{C09CBB6D-12F6-6F4C-B841-332787228A24}"/>
+    <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{C09CBB6D-12F6-6F4C-B841-332787228A24}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="114">
   <si>
     <t>test_tfm = transforms.Compose([</t>
   </si>
@@ -196,6 +196,285 @@
   </si>
   <si>
     <t>valid acc = 0.71802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle:0.75896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle:0.76195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ImageNetPolicy(),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">train loss = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">valid acc = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">valid loss = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 50: 0.717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 65: 0.748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 50: 0.715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 65: 0.737</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 85: 0.756</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 85: 0.757</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 92: 0.760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 123: 0.767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 150: 0.774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 164: 0.782</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 150: 0.772</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.79980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train loss =  0.33406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.88687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid loss = 0.91208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.77245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.80976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.80577</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kaggle: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vgg16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchsize: 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid loss = 1.01728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.80237</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.82171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficientnet_b4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchsize: 64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">train acc = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alexnet</t>
+  </si>
+  <si>
+    <t>valid loss = 0.96792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.79395</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid loss = 1.00444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.76095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficientnet_b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 regu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train loss = 0.12980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train acc = 0.95829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid loss = 0.85830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.80830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.83864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.75321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficientnet_b6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train loss = 0.09183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train acc = 0.96915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid loss = 0.85937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.81864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.84163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train loss = 0.06082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train acc = 0.98222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid loss = 0.99701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.82200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficientnet_b7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.85458</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train acc = 0.98841</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid acc = 0.83108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle: 0.87151</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,6 +495,22 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -242,8 +537,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,15 +861,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED0EF0-B58F-A746-9579-BDFDF71A97E1}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:CH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="CB3" sqref="CB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:86">
       <c r="C1">
         <v>1</v>
       </c>
@@ -584,8 +885,50 @@
       <c r="U1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Z1">
+        <v>6</v>
+      </c>
+      <c r="AD1">
+        <v>7</v>
+      </c>
+      <c r="AH1">
+        <v>8</v>
+      </c>
+      <c r="AL1">
+        <v>9</v>
+      </c>
+      <c r="AP1">
+        <v>10</v>
+      </c>
+      <c r="AT1">
+        <v>11</v>
+      </c>
+      <c r="AY1">
+        <v>12</v>
+      </c>
+      <c r="BD1">
+        <v>13</v>
+      </c>
+      <c r="BI1">
+        <v>14</v>
+      </c>
+      <c r="BN1">
+        <v>13</v>
+      </c>
+      <c r="BS1">
+        <v>16</v>
+      </c>
+      <c r="BX1">
+        <v>17</v>
+      </c>
+      <c r="CC1">
+        <v>18</v>
+      </c>
+      <c r="CH1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -601,8 +944,47 @@
       <c r="S3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="AB3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>105</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -618,8 +1000,47 @@
       <c r="S4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="AB4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:86">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -635,8 +1056,47 @@
       <c r="S5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="AB5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>51</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:86">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -652,24 +1112,152 @@
       <c r="S6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="AB6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>50</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="X7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF7" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86">
+      <c r="CA8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:86">
       <c r="S9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="X9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>98</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:86">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -685,8 +1273,82 @@
       <c r="S10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="X10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>76</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:86">
+      <c r="AF11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:86">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -702,8 +1364,50 @@
       <c r="S12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="X12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:86">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -719,8 +1423,50 @@
       <c r="S13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="X13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:86">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -736,8 +1482,50 @@
       <c r="S14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="X14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:86">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -753,13 +1541,58 @@
       <c r="S15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="X15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="CF16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:84">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -775,8 +1608,50 @@
       <c r="S19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="X19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:84">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -792,8 +1667,50 @@
       <c r="S20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="X20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>5</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:84">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -809,8 +1726,50 @@
       <c r="S21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="X21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:84">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -826,8 +1785,50 @@
       <c r="S22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="X22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>29</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>29</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:84">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -843,8 +1844,50 @@
       <c r="S23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="X23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>30</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:84">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -860,8 +1903,50 @@
       <c r="S24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="X24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>48</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>48</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:84">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -877,8 +1962,50 @@
       <c r="S25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="X25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:84">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -894,8 +2021,50 @@
       <c r="S26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="X26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>32</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>32</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:84">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -908,8 +2077,50 @@
       <c r="S27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="X27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:84">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -922,14 +2133,146 @@
       <c r="S28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="X28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:84">
       <c r="A29" t="s">
         <v>3</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:84">
+      <c r="CF30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:84">
+      <c r="AB32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="28:32">
+      <c r="AB33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="28:32">
+      <c r="AB34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="28:32">
+      <c r="AB35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="28:32">
+      <c r="AB36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="28:32">
+      <c r="AF37" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>